--- a/documents/plannings/フックショットステージ.xlsx
+++ b/documents/plannings/フックショットステージ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="477" documentId="8_{88D38188-87EF-B74E-9824-164A2572A00D}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{86006005-C8EF-044C-9294-0A4C0F52B541}"/>
+  <xr:revisionPtr revIDLastSave="585" documentId="8_{88D38188-87EF-B74E-9824-164A2572A00D}" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{3E9CA03C-7BB7-4647-A7D3-512644AE833D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -42,13 +42,38 @@
     <t>ブロック：障害物や足場になる</t>
   </si>
   <si>
-    <t>■敵グループA　 空中を飛び、フックショットを当てると敵の上にかぶさり足場のように使える敵。他の敵に飛び移るか、主人公をタップすると倒して離れることができる⚫敵A-1　被さられても敵は動かず、その場にとどまる。別の足場に飛び移ると倒せる⚫敵A-2 　被さられるとゆっくり真下に高度を下げる敵。別の足場に飛び移ると倒せる⚫敵A-3 　被さられるとゆっくり真上に上昇する敵。別の足場に飛び移ると倒せる⚫敵A-4 　被さられると右(スクロール正方向)に移動する敵。別の足場に飛び移ると倒せる。　また、左方向に移動する色ちがいも居る⚫敵A-5 　被さられると主人公を円形軌道に振り回す敵。別の足場に飛び移ると倒せる。また、右回り左回りの色ちがいが居る</t>
+    <t>●フックショット：有効射程はキャラ2.5身長ほど。障害物や足場はすり抜ける。敵には引っ掛かる。トゲに当たると跳ね返って引っ込む</t>
   </si>
   <si>
-    <t>■敵グループA　 空中を飛び、フックショットを当てると敵の上にかぶさり足場のように使える敵。他の敵に飛び移るか、主人公をタップすると倒して離れることができる⚫敵A-1　被さられても敵は動かず、その場にとどまる。別の足場に飛び移ると倒せる⚫敵A-2 　被さられるとゆっくり真下に高度を下げる敵。別の足場に飛び移ると倒せる⚫敵A-3 　被さられるとゆっくり真上に上昇する敵。別の足場に飛び移ると倒せる⚫敵A-5 　被さられると右(スクロール正方向)に移動する敵。別の足場に飛び移ると倒せる。　また、左方向に移動する居る⚫敵A-5 　被さられると主人公を円形軌道に振り回す敵。別の足場に飛び移ると倒せる。また、右回り左回りの色ちがいが居る_x0000_居る_x0000__x0000_</t>
+    <t>※参考動画(12:35秒辺り)https://youtu.be/XU6T_SmAkpA</t>
   </si>
   <si>
-    <t>●フックショット：有効射程はキャラ2.5身長ほど。障害物や足場はすり抜ける。敵には引っ掛かる。トゲに当たると跳ね返って引っ込む</t>
+    <t>●フックショットの挙動：プレイヤーが鎖をうちだし、その鎖が対象物に引っ掛かる。そして鎖が縮み、プレイヤーが対象物まで引っ張られ、対象物のところで停止する(ただしフックショット自身の挙動はこの通りだが、敵によって主人公を撥ね飛ばしたり、立体挙動よろしく振り回す動きなどが存在する）</t>
+  </si>
+  <si>
+    <t>■敵グループA　 空中を飛び、フックショットを当てると敵の上にかぶさり足場のように使える敵。他の敵に飛び移るか、主人公をタップすると倒して離れることができる
+⚫敵A-1　被さられても敵は動かず、その場にとどまる。別の足場に飛び移ると倒せる
+⚫敵A-2 　被さられるとゆっくり真下に高度を下げる敵。別の足場に飛び移ると倒せる
+⚫敵A-3 　被さられるとゆっくり真上に上昇する敵。別の足場に飛び移ると倒せる
+⚫敵A-4 　被さられると右(スクロール正方向)に移動する敵。別の足場に飛び移ると倒せる。　また、左方向に移動する色ちがいも居る
+⚫敵A-5 　被さられると主人公を円形軌道に振り回す敵。別の足場に飛び移ると倒せる。また、右回り左回りの色ちがいが居る</t>
+  </si>
+  <si>
+    <t>■敵グループB フックショットを掛けると主人公が引き寄せられ、重なった位置に着くと同時死ぬ敵
+⚫敵Ｂ-1 フックショットを掛けると引き寄せられ、敵と重なる位置に着いたらそのまま敵が死ぬ。主人公は敵と重なった位置に着いたときにそれまでの慣性を失い停止、そのまま重力に従い落下する
+⚫敵Ｂ-2 フックショットを掛けると引き寄せられ、重なった位置に着くと死ぬ敵。B-1との違いは主人公が慣性を保持し、敵を倒した後にそのまま飛び出すところ
+⚫敵Ｂ-3 フックショットを掛けると引き寄せられ、重なった位置に着くと死ぬ敵。それまでの慣性を保持したうえ、敵と重なった位置で少し跳びあがる(踏みつけてジャンプする)
+⚫敵Ｂ-4 フックショットを掛けると引き寄せられ、重なった位置に着くと死ぬ敵。敵と重なった位置で壁キックのように反対方向に跳び上がる
+⚫敵Ｂ-5 フックショットを掛けると引き寄せられ、重なった位置に着くと死ぬ敵。矢印のように一定方向を指し続け、倒すとその方向に主人公を発射する。
+矢印の方向に上下左右斜め8方向のバリエーションがある
+⚫敵Ｂ-6 フックショットを掛けると引き寄せられ、重なった位置に着くと死ぬ敵。B-5と同じように主人公を発射する。B-5の挙動に加え、空中で回転しており、フックショットを掛けた時点で回転が停止し、倒されたときにその方向に主人公を発射する。
+⚫敵Ｂ-7 フックショットを掛けると引き寄せられ、重なった位置に着くと死ぬ敵。B-5と同じように主人公を発射する。B-5の挙動に加え、空中で左右または上下に移動しており、フックショットを掛けた時点で停止し、倒されたときにその位置から敵が向いている方向に主人公を発射する。</t>
+  </si>
+  <si>
+    <t>●主人公は地面にいる場合、右方向（スクロール正方向）に自動で走る。速度はスーパーマリオラン位。空中では慣性のある自由落下をする。</t>
+  </si>
+  <si>
+    <t>●プレイヤーは画面上をタップして、その場所にフックショットを撃つ操作ができる。それ以外の操作は存在しない。</t>
   </si>
 </sst>
 </file>
@@ -332,14 +357,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>55141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1288246</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>116699</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>116701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -370,8 +395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2725361"/>
-          <a:ext cx="9530724" cy="2405512"/>
+          <a:off x="0" y="4111986"/>
+          <a:ext cx="9509259" cy="2386912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -384,14 +409,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1258006</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>40078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>259535</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>110349</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>110351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -436,13 +461,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1350135</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>85858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1811629</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>176008</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -770,14 +795,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1288246</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25760</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -808,8 +833,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6715976"/>
-          <a:ext cx="9533585" cy="1363370"/>
+          <a:off x="0" y="1657442"/>
+          <a:ext cx="9509259" cy="1351923"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,14 +847,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1242811</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>102675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>241478</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23613</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23611</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -874,13 +899,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1263033</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>87787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1578389</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>49149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -944,13 +969,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2400045</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>125333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2682847</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>53194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1022,13 +1047,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1109639</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>132456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1392441</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>61873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1100,13 +1125,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1070129</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>41061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1642523</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>6222</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1166,13 +1191,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>37562</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>100169</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>293351</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>21464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1270,13 +1295,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>34189</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>93325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>236424</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>171065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1334,15 +1359,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2267986</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1303</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>130841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>18665</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>55995</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1353,7 +1378,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEF8013-C1A6-AA44-8819-261ADC416796}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E6FB6A53-49C1-CF4C-B0DC-112B2129EC8C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DF91366B-900F-9A42-9274-5EFB80D18B99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,8 +1386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10499266" y="5929444"/>
-          <a:ext cx="2777793" cy="696642"/>
+          <a:off x="16006880" y="910728"/>
+          <a:ext cx="2764853" cy="2128872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,13 +1422,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1730250</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>25540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2045606</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>165775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1467,13 +1492,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1288791</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>135011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1604147</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>96372</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1537,13 +1562,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>250983</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>78704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>694027</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1603,13 +1628,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2142031</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>7155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>178872</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>175359</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1669,13 +1694,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2399673</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>105983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2682475</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>35400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1857,7 +1882,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>572652</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>160530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1930,13 +1955,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1255155</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>37138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1353312</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>41775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1982,13 +2007,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1430636</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>32591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1528793</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>37228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2034,13 +2059,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1596884</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>32660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1695041</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>37297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2086,14 +2111,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>96726</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>175827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>194883</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>438</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2138,13 +2163,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>581484</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>32799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>679641</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>37436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2190,13 +2215,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>267659</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>365816</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>32889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2242,14 +2267,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1637487</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>45074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1735644</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47797</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2294,13 +2319,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1611775</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>138103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1709932</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>140827</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2346,13 +2371,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1759608</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>84989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1857765</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>87713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2398,13 +2423,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1985080</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>31875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2083237</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>34599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2450,13 +2475,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>420161</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>27739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514229</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>62889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2502,14 +2527,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2224117</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>164749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2318185</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>21786</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21785</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2554,13 +2579,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>814970</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>23533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1130326</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>166064</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2624,13 +2649,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1455743</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>22331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1771099</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>164863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2694,14 +2719,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>348748</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>60690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>446905</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>63413</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63414</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2746,14 +2771,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>598716</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>43973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>696873</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46696</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46697</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2798,13 +2823,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1167403</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>163850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1265560</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>166574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2850,13 +2875,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1326307</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1424464</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>97822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2902,13 +2927,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1797426</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>91391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1895583</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>94115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2954,13 +2979,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2174033</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>18624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2489389</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>161155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3024,13 +3049,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>210460</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>11212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>493262</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>122755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3102,13 +3127,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1923808</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2021965</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>155452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3154,14 +3179,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2050190</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2148347</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>41168</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>41169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3206,14 +3231,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2566841</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>2215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2664998</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>4938</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3258,13 +3283,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2712736</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>122092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66002</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>124816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3310,13 +3335,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>93444</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>24447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>187512</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>63610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3362,13 +3387,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>369104</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>58540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1099257</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>80588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3428,13 +3453,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>621090</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>79357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>719247</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>82081</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3480,13 +3505,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>793004</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>75649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>891161</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>78373</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3532,14 +3557,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>717747</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>65438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>815904</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68161</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3584,13 +3609,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1169353</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>133279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1267510</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>136003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3636,13 +3661,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2245389</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>142581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2343546</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>145305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3688,13 +3713,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>706624</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>177901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>804781</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>321</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3740,13 +3765,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1112757</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>11999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1921011</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>96555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3806,13 +3831,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>488983</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>97567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>104070</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>154936</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3872,13 +3897,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485665</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>86466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>111545</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>46871</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3942,13 +3967,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>120785</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>164368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>604916</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4008,13 +4033,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>610029</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>20514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>203357</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>132057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4086,13 +4111,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>158749</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>150654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>441551</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>78514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4164,13 +4189,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>669960</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>154156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>682970</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>110575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4230,13 +4255,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>210397</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>84951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>308554</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>87674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4282,13 +4307,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>440851</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>100757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>539008</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>103480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4334,13 +4359,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>365595</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>463752</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>125790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4386,13 +4411,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>674102</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>60819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>82783</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>63543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4438,13 +4463,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>519031</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>157335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>613099</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>14371</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4490,13 +4515,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>370235</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>65045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>65045</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>160726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4553,13 +4578,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>351241</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>58541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>351761</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>42799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4726,7 +4751,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>558083</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>8586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4943,7 +4968,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2074930</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>42929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5055,13 +5080,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>359025</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>74302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>671778</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>34707</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5125,13 +5150,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>482868</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>88405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>78796</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>16265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5203,13 +5228,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>12789</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295591</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>125737</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5281,13 +5306,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>293978</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>99854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>576780</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>27714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5359,13 +5384,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28620</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>78705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>248596</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>119656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5437,13 +5462,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>325658</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>113050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>421211</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>115774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5489,13 +5514,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>649777</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>108042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>58456</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>110766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5541,13 +5566,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>208987</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>106852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>304540</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>109576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5593,13 +5618,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>302653</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>116625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>398206</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>119349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5645,13 +5670,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>583841</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>90152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>679394</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>92876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5697,13 +5722,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>185311</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>99453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>280864</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>102177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5749,13 +5774,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>158838</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>108755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>254391</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>111479</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5801,13 +5826,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>37921</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>145245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>257897</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>7324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5879,13 +5904,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>497984</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>82999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>31086</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5957,13 +5982,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>328412</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>128074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>548388</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>169025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6035,14 +6060,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>48951</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>143019</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9361</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9362</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6087,13 +6112,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>189604</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>132366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>285157</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>135090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6139,13 +6164,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>413553</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>27189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>509106</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>29913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6191,14 +6216,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>372770</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>100885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>468323</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103609</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>103608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6243,14 +6268,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>575255</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>138804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>670808</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>141527</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141528</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6295,14 +6320,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>126641</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>55093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>222194</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57817</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6347,13 +6372,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>384845</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>147792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>667647</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>75651</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6425,13 +6450,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257578</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>60101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1013138</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85859</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6483,13 +6508,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>850006</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1151054</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>137375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6542,13 +6567,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1717183</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>8586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2000518</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>60101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6600,13 +6625,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2086378</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>10949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2441460</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>51517</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6659,13 +6684,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2550019</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>51514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257579</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>88432</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6738,13 +6763,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>281190</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>100885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>420161</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>135466</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6797,13 +6822,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>433590</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>72981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>807077</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>137374</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6855,13 +6880,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>809223</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>927280</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>137375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6913,13 +6938,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>995966</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1309216</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>51518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6972,13 +6997,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1577662</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>118833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1776433</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>160989</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7031,13 +7056,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1562637</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>77272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1747234</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>107327</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7089,13 +7114,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1607713</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>77273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2395471</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>122355</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7147,13 +7172,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2534199</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>17177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2550017</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>7155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7206,13 +7231,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2573628</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>120203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>214647</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>126647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7264,13 +7289,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1313645</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>120203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1320084</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>57954</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7322,13 +7347,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1347989</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>100883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1740794</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>120202</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7380,13 +7405,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>330556</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>141673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>772732</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>145961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7438,13 +7463,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1124755</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>117585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1501926</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>23615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7497,13 +7522,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1803042</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>32204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2174033</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180043</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7556,13 +7581,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2507087</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>157136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>210460</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>23614</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7615,13 +7640,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>480812</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>15032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>515155</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>60100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7673,13 +7698,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>633212</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>163133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1098997</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>167432</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7731,13 +7756,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1137635</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>173874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1588395</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>17172</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7789,13 +7814,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>309092</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>90157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>575256</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>77273</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7847,13 +7872,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>712631</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>34343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1697864</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57954</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7905,13 +7930,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1638479</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>40783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2104264</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>45082</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7963,13 +7988,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2094248</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>100175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2169374</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>74411</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8021,13 +8046,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2197994</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>62964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>358462</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66541</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8079,13 +8104,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>354885</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>74410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>492259</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>165995</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8137,13 +8162,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>100885</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>112331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>651064</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>63673</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8196,13 +8221,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66540</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>163848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>86440</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>2568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8254,13 +8279,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>173148</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>108756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>560945</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>115910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8312,13 +8337,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>531610</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>114585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>158749</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>90868</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8371,13 +8396,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>309093</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>125927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>71549</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>162844</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8450,13 +8475,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>54377</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>31482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114479</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>108755</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8508,13 +8533,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>218225</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>69402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>62964</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>80135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8566,13 +8591,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95875</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>72980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>146243</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>80198</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8624,13 +8649,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266683</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>104073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>591909</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>110575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8909,13 +8934,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>172334</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>141813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>148446</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>62827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8983,13 +9008,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>158641</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>167267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>404827</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>83855</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9042,13 +9067,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>664857</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>153591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>524560</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>160774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9101,13 +9126,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>667555</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>160270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>612462</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>63391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9180,13 +9205,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571128</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>163954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>12789</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>170076</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9239,13 +9264,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>168305</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>36278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>293978</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>63784</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9298,13 +9323,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>236112</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>77988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>181019</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>164275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9377,13 +9402,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>468647</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>93013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>413554</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>179301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9456,13 +9481,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>178676</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>182063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>503902</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>5397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9511,13 +9536,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>218225</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>32196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>234681</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>51515</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9535,8 +9560,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15541221" y="4886100"/>
-          <a:ext cx="2077076" cy="19319"/>
+          <a:off x="15546034" y="6281377"/>
+          <a:ext cx="2080003" cy="19319"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9569,13 +9594,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>256145</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>75651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>526246</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1429</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9628,13 +9653,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>608169</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>72265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>553076</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>158552</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9703,6 +9728,1613 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1288246</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>113767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="159" name="図 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8960CD94-E314-094F-A364-39BA7E366F69}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E65854DE-C936-2D48-BFEC-B328EA174E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="43649"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1745449"/>
+          <a:ext cx="9509259" cy="1351923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42930</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2146479</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108755</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="正方形/長方形 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA538C94-3E95-9D4A-9AAA-D8C7177E588E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8960CD94-E314-094F-A364-39BA7E366F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42930" y="2393564"/>
+          <a:ext cx="2103549" cy="3739641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>622479</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>92216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457916</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="正方形/長方形 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354B505D-6731-494E-8F35-36248B9F7CDD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FA538C94-3E95-9D4A-9AAA-D8C7177E588E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29678646" y="92216"/>
+          <a:ext cx="522310" cy="928551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>341291</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>538764</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46507</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4188C5D4-D1B6-974B-A6FB-FBD1BD2A1E77}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{354B505D-6731-494E-8F35-36248B9F7CDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28023711" y="1006698"/>
+          <a:ext cx="3631840" cy="1665667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>画面の枠。１画面での描画範囲です。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1287889</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>265093</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="165" name="図 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8669CF5D-61BF-2243-BFEE-D2716DD84C18}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4188C5D4-D1B6-974B-A6FB-FBD1BD2A1E77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="43649"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9508902" y="1745803"/>
+          <a:ext cx="9509259" cy="1351923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>137374</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>98545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>250421</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="ハート 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EABF863C-4D98-2A41-9EF4-0E3780CFB27B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8669CF5D-61BF-2243-BFEE-D2716DD84C18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32661406" y="98545"/>
+          <a:ext cx="800895" cy="800572"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>679719</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>312216</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="テキスト ボックス 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC630C7-E9ED-D34B-AAFC-53D13ADE6F61}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{EABF863C-4D98-2A41-9EF4-0E3780CFB27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31140203" y="980875"/>
+          <a:ext cx="3759590" cy="1663197"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>プレイヤーが「面白い、気持ちいい、達成感がある」と感じる場所です。ゲーム内には一切登場しない資料用アイコン。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>大きさがその度合いを表します。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ちなみにルピーを除外して考慮しています（ルピーはあくまでそこまでの誘導と、爽快感を増すスパイスの役目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2336606</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2588617</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>77600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="ハート 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B994A1BF-F7EE-9540-98BC-4BEEF644DD57}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AAC630C7-E9ED-D34B-AAFC-53D13ADE6F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5078245" y="4629303"/>
+          <a:ext cx="252011" cy="253482"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1356575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>55191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1509690</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="ハート 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D650EAB-7445-BF48-BDCD-8D97BA817686}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B994A1BF-F7EE-9540-98BC-4BEEF644DD57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1356575" y="5364149"/>
+          <a:ext cx="153115" cy="153020"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2389031</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>71648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2542146</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="ハート 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1CD73C-05A7-1840-99EC-0261B8240553}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1D650EAB-7445-BF48-BDCD-8D97BA817686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2389031" y="5380606"/>
+          <a:ext cx="153115" cy="153020"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>366333</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>519448</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>162421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="ハート 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848588BE-6099-6E45-AEAC-BCFA0CC0C45E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6C1CD73C-05A7-1840-99EC-0261B8240553}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3106671" y="5497231"/>
+          <a:ext cx="153115" cy="153020"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>290492</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457916</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="ハート 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7171D736-4D7F-9A4A-A3F9-BD6737BA7F0D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{848588BE-6099-6E45-AEAC-BCFA0CC0C45E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8511505" y="4784581"/>
+          <a:ext cx="167424" cy="166630"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4878</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157993</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="ハート 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC03DCE7-FA5C-C140-891D-F5543AABF599}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7171D736-4D7F-9A4A-A3F9-BD6737BA7F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11893443" y="5917453"/>
+          <a:ext cx="153115" cy="154647"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44882</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295759</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="ハート 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBC7B42-9158-6445-9A35-ABCED30F74DF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CC03DCE7-FA5C-C140-891D-F5543AABF599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12621296" y="5819884"/>
+          <a:ext cx="250877" cy="253387"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>653701</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>111552</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>44788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="ハート 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07FB0C1-D27C-D848-8488-20AE7FEB57E5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DBBC7B42-9158-6445-9A35-ABCED30F74DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15293661" y="6327310"/>
+          <a:ext cx="145700" cy="147158"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>498764</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>64666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>644464</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="ハート 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E88C790-5BBB-3447-9468-CAF0CF576130}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E07FB0C1-D27C-D848-8488-20AE7FEB57E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15138724" y="5591849"/>
+          <a:ext cx="145700" cy="147158"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>646092</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="ハート 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD417FD-BD4C-FB49-963B-321258C1A93F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2E88C790-5BBB-3447-9468-CAF0CF576130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15973901" y="5650312"/>
+          <a:ext cx="250877" cy="253387"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>490178</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635878</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105671</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="ハート 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE1F532-16F8-1141-A499-17ACA849724B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DAD417FD-BD4C-FB49-963B-321258C1A93F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15817987" y="4944198"/>
+          <a:ext cx="145700" cy="147158"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>135035</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>75515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385912</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>148403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="ハート 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDA725E-3464-B54E-A871-56FCE2ED0157}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4CE1F532-16F8-1141-A499-17ACA849724B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16838542" y="5422199"/>
+          <a:ext cx="250877" cy="253387"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>686483</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144334</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="ハート 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA27A31-61BD-4B4B-95B9-6C50EBB21BED}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DAD417FD-BD4C-FB49-963B-321258C1A93F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16702141" y="4706329"/>
+          <a:ext cx="145700" cy="147158"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297385</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>443085</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="ハート 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FE847F-A405-554F-9C63-D07333769DAA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FFA27A31-61BD-4B4B-95B9-6C50EBB21BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17688741" y="4487973"/>
+          <a:ext cx="145700" cy="147158"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>463055</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>110834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>26083</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3222</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="ハート 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03760E34-60ED-4441-84B5-E2DBC86DA95D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{08FE847F-A405-554F-9C63-D07333769DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17854411" y="5096519"/>
+          <a:ext cx="250877" cy="253387"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214452</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>360152</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>103135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="ハート 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42754A78-3D53-3847-A417-97D88A3A9E19}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{03760E34-60ED-4441-84B5-E2DBC86DA95D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18293657" y="5483160"/>
+          <a:ext cx="145700" cy="147158"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322754</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>668336</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>48298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="208" name="ハート 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA301FF-236B-3E48-B88A-4D35F81F3A57}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{42754A78-3D53-3847-A417-97D88A3A9E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18401959" y="4323945"/>
+          <a:ext cx="345582" cy="349039"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9712,13 +11344,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>965915</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>196042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1511836</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>135225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9779,13 +11411,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1825937</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1008844</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>35774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9830,13 +11462,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1564068</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>4292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2109989</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>149537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9908,13 +11540,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>549498</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>188890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>394953</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>145961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9974,13 +11606,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>165279</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>183622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>643945</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>42929</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10040,13 +11672,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>171719</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>55908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>584913</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>68691</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10106,13 +11738,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>231819</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>154550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>540911</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>34345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10172,7 +11804,7 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>117562</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>61367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="447960" cy="496620"/>
@@ -10219,13 +11851,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>669016</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>105769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>124433</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>105956</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10277,13 +11909,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>622168</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>93325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>62216</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>93325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10335,13 +11967,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>615946</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>49773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>174207</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>59177</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10394,13 +12026,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>2267986</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>130841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>18665</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>55995</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10455,7 +12087,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>138671</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>61398</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="296254" cy="674037"/>
@@ -10502,7 +12134,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>667609</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85001</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="348529" cy="664193"/>
@@ -10549,13 +12181,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>663716</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>92529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>572652</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>160530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10628,13 +12260,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>559385</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>39028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>254195</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95683</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10691,13 +12323,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>549173</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>48329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>549173</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>13009</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10743,13 +12375,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>360608</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>188890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>558083</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>8586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10806,13 +12438,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>575256</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>36258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352023</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>145960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10884,13 +12516,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>420202</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>41137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180303</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>111616</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10960,13 +12592,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>42928</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>25757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>60290</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>156973</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11025,13 +12657,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>15024</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>23610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>377780</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>17172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11079,13 +12711,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>532327</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>111616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180304</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>128787</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11146,13 +12778,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>118057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540911</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>143813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11213,13 +12845,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1949003</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>103031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>579551</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>8356</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11627,10 +13259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0685582D-39F6-5148-A874-1B84234F4391}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{CF58B105-DE7A-5826-AF16-6B19CA19A6E4}">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="O4" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{CF58B105-DE7A-5826-AF16-6B19CA19A6E4}">
+      <selection activeCell="AA16" sqref="AA16:AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11682,12 +13314,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
       <c r="B7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11699,9 +13371,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DC9D48-8650-3744-9FA7-A89968F69740}">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{E3606B99-D860-540A-86ED-E224862C3F04}"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{E3606B99-D860-540A-86ED-E224862C3F04}">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11711,53 +13385,73 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="288.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:30" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="K4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="AD7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="AD11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
